--- a/msff/xls/DJDJ.xlsx
+++ b/msff/xls/DJDJ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEA85DD-C472-4642-82D4-616EBC94525F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498E3816-35A9-4EC9-AEEF-B53064749688}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,16 +35,16 @@
     <t>total monthly</t>
   </si>
   <si>
-    <t>first deposit</t>
-  </si>
-  <si>
-    <t>second deposit</t>
-  </si>
-  <si>
     <t>basic room</t>
   </si>
   <si>
     <t>tiered GP #est</t>
+  </si>
+  <si>
+    <t>first deposit, based on Year 1 discount</t>
+  </si>
+  <si>
+    <t>second deposit, based on Year 1 discount</t>
   </si>
 </sst>
 </file>
@@ -80,9 +80,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,7 +367,7 @@
   <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,28 +377,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>248966</v>
+      <c r="B2" s="2">
+        <v>248966.88</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3">
+      <c r="B3" s="2">
         <v>12768</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
         <f>SUM(B2:B3)/12</f>
-        <v>21811.166666666668</v>
+        <v>21811.24</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -426,7 +427,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>4000</v>
@@ -438,7 +439,7 @@
       </c>
       <c r="C10" s="1">
         <f>SUM(C4:C8)</f>
-        <v>32911.166666666672</v>
+        <v>32911.240000000005</v>
       </c>
     </row>
   </sheetData>

--- a/msff/xls/DJDJ.xlsx
+++ b/msff/xls/DJDJ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498E3816-35A9-4EC9-AEEF-B53064749688}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A5916C-F24B-4359-B430-BA3C6AA4AA33}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,30 +21,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>2nd person</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>food</t>
   </si>
   <si>
-    <t>tiered GM</t>
-  </si>
-  <si>
     <t>total monthly</t>
   </si>
   <si>
     <t>basic room</t>
   </si>
   <si>
-    <t>tiered GP #est</t>
-  </si>
-  <si>
     <t>first deposit, based on Year 1 discount</t>
   </si>
   <si>
     <t>second deposit, based on Year 1 discount</t>
+  </si>
+  <si>
+    <t>tiered护理GP #est</t>
+  </si>
+  <si>
+    <t>tiered护理GM</t>
+  </si>
+  <si>
+    <t>2nd person入住</t>
+  </si>
+  <si>
+    <t>based on Year1 deposit</t>
   </si>
 </sst>
 </file>
@@ -364,68 +367,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C10"/>
+  <dimension ref="B2:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
         <v>248966.88</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>12768</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
         <f>SUM(B2:B3)/12</f>
         <v>21811.24</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>2500</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>3600</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -433,9 +439,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
         <f>SUM(C4:C8)</f>

--- a/msff/xls/DJDJ.xlsx
+++ b/msff/xls/DJDJ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A5916C-F24B-4359-B430-BA3C6AA4AA33}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091C1CDF-87D7-4423-9D42-B5D9DD6F74D9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>food</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>based on Year1 deposit</t>
+  </si>
+  <si>
+    <t>without discount</t>
   </si>
 </sst>
 </file>
@@ -367,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D10"/>
+  <dimension ref="B2:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -379,7 +382,7 @@
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
         <v>248966.88</v>
       </c>
@@ -387,15 +390,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>12768</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -406,8 +412,12 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <f>C4/0.95/0.8</f>
+        <v>28699.000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -415,7 +425,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -423,7 +433,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -431,7 +441,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -439,7 +449,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>1</v>
       </c>

--- a/msff/xls/DJDJ.xlsx
+++ b/msff/xls/DJDJ.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091C1CDF-87D7-4423-9D42-B5D9DD6F74D9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436BE8DD-A052-41C8-81BB-B24DA6D55B8C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="monthly" sheetId="1" r:id="rId1"/>
-    <sheet name="one-time" sheetId="2" r:id="rId2"/>
+    <sheet name="monthly fees" sheetId="1" r:id="rId1"/>
+    <sheet name="cashflow proj" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>food</t>
   </si>
@@ -51,6 +51,66 @@
   </si>
   <si>
     <t>without discount</t>
+  </si>
+  <si>
+    <t>This tab includes all and only monthly recurring fees</t>
+  </si>
+  <si>
+    <t>incom`</t>
+  </si>
+  <si>
+    <t>outgo`</t>
+  </si>
+  <si>
+    <t>monthly salary/000</t>
+  </si>
+  <si>
+    <t>grandpa total/000</t>
+  </si>
+  <si>
+    <t>grandma total/000</t>
+  </si>
+  <si>
+    <t>..grandma Psbc</t>
+  </si>
+  <si>
+    <t>..grandpa TD</t>
+  </si>
+  <si>
+    <t>..grandpa sav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exact: </t>
+  </si>
+  <si>
+    <t>est:</t>
+  </si>
+  <si>
+    <t>snapshot before 7800k</t>
+  </si>
+  <si>
+    <t>7800 part 1</t>
+  </si>
+  <si>
+    <t>7800 part 2</t>
+  </si>
+  <si>
+    <t>7800 part 3</t>
+  </si>
+  <si>
+    <t>bal</t>
+  </si>
+  <si>
+    <t>..grandma Icbc</t>
+  </si>
+  <si>
+    <t>expense till EOY</t>
+  </si>
+  <si>
+    <t>sal till EOY #months=</t>
+  </si>
+  <si>
+    <t>transfer to CiticTrust</t>
   </si>
 </sst>
 </file>
@@ -370,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H10"/>
+  <dimension ref="B1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,79 +442,84 @@
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="2">
-        <v>248966.88</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
+        <v>248966.88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
         <v>12768</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <f>SUM(B2:B3)/12</f>
-        <v>21811.24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4">
-        <f>C4/0.95/0.8</f>
-        <v>28699.000000000004</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>2500</v>
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <f>SUM(B3:B4)/12</f>
+        <v>21811.24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <f>C5/0.95/0.8</f>
+        <v>28699.000000000004</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>3600</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>4000</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="1">
-        <f>SUM(C4:C8)</f>
+      <c r="C11" s="1">
+        <f>SUM(C5:C9)</f>
         <v>32911.240000000005</v>
       </c>
     </row>
@@ -466,12 +531,184 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C183CB8-D378-462F-8FD8-E1E38480DC8D}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <f>SUM(D3:D4)</f>
+        <v>460</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <f>9+14</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>380</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f>SUM(D7:D8)</f>
+        <v>1600</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>1300</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>300</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f>C2+C6</f>
+        <v>2060</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <f>C12+B13+D13</f>
+        <v>2160</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>200</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:C19" si="0">C13+B14+D14</f>
+        <v>2360</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>7500</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>9860</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>8560</v>
+      </c>
+      <c r="D16">
+        <v>-1300</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>H2*F18</f>
+        <v>161</v>
+      </c>
+      <c r="C18">
+        <f>C16+B18+D18</f>
+        <v>8721</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>8651</v>
+      </c>
+      <c r="D19">
+        <f>-10*F18</f>
+        <v>-70</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/msff/xls/DJDJ.xlsx
+++ b/msff/xls/DJDJ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436BE8DD-A052-41C8-81BB-B24DA6D55B8C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01B2606-7F38-4031-A57E-832518448193}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,7 +534,7 @@
   <dimension ref="B2:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +583,7 @@
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C6">
         <f>SUM(D7:D8)</f>
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -594,7 +594,7 @@
         <v>20</v>
       </c>
       <c r="D7">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -625,7 +625,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C12">
         <f>C2+C6</f>
-        <v>2060</v>
+        <v>1660</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -637,7 +637,7 @@
       </c>
       <c r="C13">
         <f>C12+B13+D13</f>
-        <v>2160</v>
+        <v>1760</v>
       </c>
       <c r="E13" t="s">
         <v>22</v>
@@ -649,7 +649,7 @@
       </c>
       <c r="C14">
         <f t="shared" ref="C14:C19" si="0">C13+B14+D14</f>
-        <v>2360</v>
+        <v>1960</v>
       </c>
       <c r="E14" t="s">
         <v>23</v>
@@ -661,7 +661,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>9860</v>
+        <v>9460</v>
       </c>
       <c r="E15" t="s">
         <v>24</v>
@@ -670,7 +670,7 @@
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>8560</v>
+        <v>8160</v>
       </c>
       <c r="D16">
         <v>-1300</v>
@@ -686,7 +686,7 @@
       </c>
       <c r="C18">
         <f>C16+B18+D18</f>
-        <v>8721</v>
+        <v>8321</v>
       </c>
       <c r="E18" t="s">
         <v>28</v>
@@ -698,7 +698,7 @@
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>8651</v>
+        <v>8251</v>
       </c>
       <c r="D19">
         <f>-10*F18</f>

--- a/msff/xls/DJDJ.xlsx
+++ b/msff/xls/DJDJ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01B2606-7F38-4031-A57E-832518448193}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C68C200-429C-4927-A5E8-D5FA15A98110}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>food</t>
   </si>
@@ -53,9 +53,6 @@
     <t>without discount</t>
   </si>
   <si>
-    <t>This tab includes all and only monthly recurring fees</t>
-  </si>
-  <si>
     <t>incom`</t>
   </si>
   <si>
@@ -107,10 +104,25 @@
     <t>expense till EOY</t>
   </si>
   <si>
-    <t>sal till EOY #months=</t>
-  </si>
-  <si>
     <t>transfer to CiticTrust</t>
+  </si>
+  <si>
+    <t>This tab includes all and only monthly recurring fees.</t>
+  </si>
+  <si>
+    <t>Grandma wants to receive int income, so I might need to send back some interest to them.</t>
+  </si>
+  <si>
+    <t>文学所</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>received SOM</t>
+  </si>
+  <si>
+    <t>salary till EOY #months=</t>
   </si>
 </sst>
 </file>
@@ -433,7 +445,7 @@
   <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +456,7 @@
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -531,107 +543,115 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C183CB8-D378-462F-8FD8-E1E38480DC8D}">
-  <dimension ref="B2:H19"/>
+  <dimension ref="A2:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C2">
         <f>SUM(D3:D4)</f>
         <v>460</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <f>9+14</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>380</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D4">
         <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6">
         <f>SUM(D7:D8)</f>
         <v>1200</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>900</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>300</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
       <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12">
         <f>C2+C6</f>
         <v>1660</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>100</v>
       </c>
@@ -640,22 +660,22 @@
         <v>1760</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>200</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:C19" si="0">C13+B14+D14</f>
+        <f t="shared" ref="C14:C20" si="0">C13+B14+D14</f>
         <v>1960</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>7500</v>
       </c>
@@ -664,10 +684,10 @@
         <v>9460</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16">
         <f t="shared" si="0"/>
         <v>8160</v>
@@ -676,36 +696,59 @@
         <v>-1300</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <f>H2*F18</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>8260</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>8260</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f>H2*F19</f>
         <v>161</v>
       </c>
-      <c r="C18">
-        <f>C16+B18+D18</f>
-        <v>8321</v>
-      </c>
-      <c r="E18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>8251</v>
-      </c>
-      <c r="D19">
-        <f>-10*F18</f>
+        <v>8421</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>8351</v>
+      </c>
+      <c r="D20">
+        <f>-10*F19</f>
         <v>-70</v>
       </c>
-      <c r="E19" t="s">
-        <v>27</v>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/msff/xls/DJDJ.xlsx
+++ b/msff/xls/DJDJ.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C68C200-429C-4927-A5E8-D5FA15A98110}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25B0AB7-E9AE-4836-98D9-AB94C195BFBC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="monthly fees" sheetId="1" r:id="rId1"/>
     <sheet name="cashflow proj" sheetId="2" r:id="rId2"/>
+    <sheet name="Genn" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>food</t>
   </si>
@@ -59,18 +60,12 @@
     <t>outgo`</t>
   </si>
   <si>
-    <t>monthly salary/000</t>
-  </si>
-  <si>
     <t>grandpa total/000</t>
   </si>
   <si>
     <t>grandma total/000</t>
   </si>
   <si>
-    <t>..grandma Psbc</t>
-  </si>
-  <si>
     <t>..grandpa TD</t>
   </si>
   <si>
@@ -86,15 +81,6 @@
     <t>snapshot before 7800k</t>
   </si>
   <si>
-    <t>7800 part 1</t>
-  </si>
-  <si>
-    <t>7800 part 2</t>
-  </si>
-  <si>
-    <t>7800 part 3</t>
-  </si>
-  <si>
     <t>bal</t>
   </si>
   <si>
@@ -110,19 +96,82 @@
     <t>This tab includes all and only monthly recurring fees.</t>
   </si>
   <si>
-    <t>Grandma wants to receive int income, so I might need to send back some interest to them.</t>
-  </si>
-  <si>
     <t>文学所</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>received SOM</t>
   </si>
   <si>
-    <t>salary till EOY #months=</t>
+    <t>Gramma</t>
+  </si>
+  <si>
+    <t>Granpa</t>
+  </si>
+  <si>
+    <t>Term Deposit</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>ICBC</t>
+  </si>
+  <si>
+    <t>PSBC</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Sales - first payment</t>
+  </si>
+  <si>
+    <t>Sales - second payment</t>
+  </si>
+  <si>
+    <t>Sales - Final settlement</t>
+  </si>
+  <si>
+    <t>running total</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>managemet fee</t>
+  </si>
+  <si>
+    <t>7800k part 1</t>
+  </si>
+  <si>
+    <t>7800k part 2</t>
+  </si>
+  <si>
+    <t>7800k part 3</t>
+  </si>
+  <si>
+    <t>monthly salary/000=</t>
+  </si>
+  <si>
+    <t>..grandma Psbc deposits</t>
+  </si>
+  <si>
+    <t>DJDJ fees till EOY</t>
+  </si>
+  <si>
+    <t>int till EOY #months=</t>
+  </si>
+  <si>
+    <t>salary till EOY</t>
+  </si>
+  <si>
+    <t>to CiticTrust for Y2/Y3</t>
+  </si>
+  <si>
+    <t>Grandma need interest income, so I might need to send them int earned beyond the 1560k</t>
   </si>
 </sst>
 </file>
@@ -158,10 +207,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,7 +498,7 @@
   <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,7 +509,7 @@
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -466,6 +519,9 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
@@ -474,8 +530,9 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
-        <v>9</v>
+      <c r="H4">
+        <f>C5/0.95/0.8</f>
+        <v>28699.000000000004</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -488,10 +545,6 @@
       </c>
       <c r="D5" t="s">
         <v>8</v>
-      </c>
-      <c r="H5">
-        <f>C5/0.95/0.8</f>
-        <v>28699.000000000004</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -543,212 +596,559 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C183CB8-D378-462F-8FD8-E1E38480DC8D}">
-  <dimension ref="A2:I25"/>
+  <dimension ref="B2:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C2" s="4">
         <f>SUM(D3:D4)</f>
         <v>460</v>
       </c>
+      <c r="D2" s="4"/>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="H2">
         <f>9+14</f>
         <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D3">
         <v>380</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D4">
         <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="4">
         <f>SUM(D7:D8)</f>
         <v>1200</v>
       </c>
+      <c r="D6" s="4"/>
       <c r="E6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D7">
         <v>900</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D8">
         <v>300</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C12">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
         <f>C2+C6</f>
         <v>1660</v>
       </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12" s="1">
+        <f>C11+B12+D12</f>
+        <v>1760</v>
+      </c>
       <c r="E12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>100</v>
-      </c>
-      <c r="C13">
-        <f>C12+B13+D13</f>
-        <v>1760</v>
+        <v>200</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" ref="C13:C20" si="0">C12+B13+D13</f>
+        <v>1960</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>200</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ref="C14:C20" si="0">C13+B14+D14</f>
-        <v>1960</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15">
         <v>7500</v>
       </c>
-      <c r="C15">
+      <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>9460</v>
       </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>8860</v>
+      </c>
+      <c r="D15">
+        <v>-600</v>
+      </c>
       <c r="E15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>8960</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>H2*7</f>
+        <v>161</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>9121</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>8000*1.6%*F18/12</f>
+        <v>64</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>9185</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>9119</v>
+      </c>
+      <c r="D19">
+        <f>-11*F18</f>
+        <v>-66</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>9089</v>
+      </c>
+      <c r="D20">
+        <f>-5*F18</f>
+        <v>-30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C6:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C778743-D100-4935-BA36-B9FAC3809BA7}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>45413</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>380</v>
+      </c>
+      <c r="F2">
+        <f>SUM(D2:E2)</f>
+        <v>380</v>
+      </c>
+      <c r="G2">
+        <f>F2</f>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>45413</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>80</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F11" si="0">SUM(D3:E3)</f>
+        <v>80</v>
+      </c>
+      <c r="G3">
+        <f>G2+F3</f>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>45413</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>900</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G12" si="1">G3+F4</f>
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>45413</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>300</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>45427</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>45434</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>45458</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <f>-33*12</f>
+        <v>-396</v>
+      </c>
+      <c r="E8">
+        <f>-33*12</f>
+        <v>-396</v>
+      </c>
+      <c r="F8">
+        <f>SUM(D8:E8)</f>
+        <v>-792</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>45473</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <f>SUM(D9:E9)</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>45473</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <f>7500/2-50-100</f>
+        <v>3600</v>
+      </c>
+      <c r="E10">
+        <f>7800/2</f>
+        <v>3900</v>
+      </c>
+      <c r="F10">
+        <f>SUM(D10:E10)</f>
+        <v>7500</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>8691</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>45473</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="0"/>
-        <v>8160</v>
-      </c>
-      <c r="D16">
-        <v>-1300</v>
-      </c>
-      <c r="E16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17">
         <v>100</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>8260</v>
-      </c>
-      <c r="E17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>8260</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <f>H2*F19</f>
-        <v>161</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>8421</v>
-      </c>
-      <c r="E19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>8351</v>
-      </c>
-      <c r="D20">
-        <f>-10*F19</f>
-        <v>-70</v>
-      </c>
-      <c r="E20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G25" t="s">
-        <v>29</v>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>8791</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>45504</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <f>SUM(D12:E12)</f>
+        <v>23</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>8814</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>45504</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13">
+        <f>D10*1.6%/12</f>
+        <v>4.8</v>
+      </c>
+      <c r="E13">
+        <f>E10*1.6%/12</f>
+        <v>5.2</v>
+      </c>
+      <c r="F13">
+        <f>SUM(D13:E13)</f>
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:G14" si="2">G12+F13</f>
+        <v>8824</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14">
+        <v>-11</v>
+      </c>
+      <c r="F14">
+        <f>SUM(D14:E14)</f>
+        <v>-11</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>8813</v>
       </c>
     </row>
   </sheetData>

--- a/msff/xls/DJDJ.xlsx
+++ b/msff/xls/DJDJ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25B0AB7-E9AE-4836-98D9-AB94C195BFBC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61AF5D3-EF1A-4202-8DD5-B35A26F3F9EC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="monthly fees" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
-  <si>
-    <t>food</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>total monthly</t>
   </si>
@@ -54,12 +51,6 @@
     <t>without discount</t>
   </si>
   <si>
-    <t>incom`</t>
-  </si>
-  <si>
-    <t>outgo`</t>
-  </si>
-  <si>
     <t>grandpa total/000</t>
   </si>
   <si>
@@ -81,9 +72,6 @@
     <t>snapshot before 7800k</t>
   </si>
   <si>
-    <t>bal</t>
-  </si>
-  <si>
     <t>..grandma Icbc</t>
   </si>
   <si>
@@ -99,9 +87,6 @@
     <t>文学所</t>
   </si>
   <si>
-    <t>received SOM</t>
-  </si>
-  <si>
     <t>Gramma</t>
   </si>
   <si>
@@ -147,9 +132,6 @@
     <t>7800k part 1</t>
   </si>
   <si>
-    <t>7800k part 2</t>
-  </si>
-  <si>
     <t>7800k part 3</t>
   </si>
   <si>
@@ -162,22 +144,46 @@
     <t>DJDJ fees till EOY</t>
   </si>
   <si>
-    <t>int till EOY #months=</t>
-  </si>
-  <si>
     <t>salary till EOY</t>
   </si>
   <si>
-    <t>to CiticTrust for Y2/Y3</t>
-  </si>
-  <si>
     <t>Grandma need interest income, so I might need to send them int earned beyond the 1560k</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>int till EOY #months =</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>bal/000</t>
+  </si>
+  <si>
+    <t>.. grandMa icbc snapshot 64万=</t>
+  </si>
+  <si>
+    <t>.. grandMa psbc snapshot 95万</t>
+  </si>
+  <si>
+    <t>to CiticTrust for Y2/Y3 #est</t>
+  </si>
+  <si>
+    <t>food x 2</t>
+  </si>
+  <si>
+    <t>7800k part 2 #205万 confirmed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="\+0;\-0;0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -195,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -203,17 +209,129 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,7 +616,7 @@
   <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +627,7 @@
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -517,10 +635,10 @@
         <v>248966.88</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -528,7 +646,7 @@
         <v>12768</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <f>C5/0.95/0.8</f>
@@ -537,19 +655,19 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
         <f>SUM(B3:B4)/12</f>
         <v>21811.24</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2500</v>
@@ -557,15 +675,16 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C7">
+        <f>1800*2</f>
         <v>3600</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>1000</v>
@@ -573,7 +692,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>4000</v>
@@ -581,7 +700,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1">
         <f>SUM(C5:C9)</f>
@@ -596,240 +715,279 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C183CB8-D378-462F-8FD8-E1E38480DC8D}">
-  <dimension ref="B2:I23"/>
+  <dimension ref="B2:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="4">
-        <f>SUM(D3:D4)</f>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="4">
+        <f>SUM(C3:C4)</f>
         <v>460</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2">
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2">
         <f>9+14</f>
         <v>23</v>
       </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="8">
+        <v>380</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11">
+        <v>80</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <f>SUM(C7:C8)</f>
+        <v>1290</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="8">
+        <v>950</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="11">
+        <v>340</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D3">
-        <v>380</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D4">
-        <v>80</v>
-      </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
+      <c r="C11" s="14">
+        <f>B2+B6</f>
+        <v>1750</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="4">
-        <f>SUM(D7:D8)</f>
-        <v>1200</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="16">
+        <v>100</v>
+      </c>
+      <c r="C12" s="14">
+        <f>C11+B12</f>
+        <v>1850</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="15">
+        <v>200</v>
+      </c>
+      <c r="C13" s="14">
+        <f>C12+B13</f>
+        <v>2050</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="15"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="17">
+        <f>320+320</f>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="15">
+        <v>7500</v>
+      </c>
+      <c r="C16" s="14">
+        <f>C13+B16</f>
+        <v>9550</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="15">
+        <v>-700</v>
+      </c>
+      <c r="C17" s="14">
+        <f>C16+B17</f>
+        <v>8850</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="15">
+        <v>100</v>
+      </c>
+      <c r="C18" s="14">
+        <f>C17+B18</f>
+        <v>8950</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="15">
+        <f>G2*7</f>
+        <v>161</v>
+      </c>
+      <c r="C19" s="14">
+        <f>C18+B19</f>
+        <v>9111</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="15">
+        <f>8000*1.6%*E20/12</f>
+        <v>64</v>
+      </c>
+      <c r="C20" s="14">
+        <f>C19+B20</f>
+        <v>9175</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="15">
+        <f>-11*$E$20</f>
+        <v>-66</v>
+      </c>
+      <c r="C21" s="14">
+        <f>C20+B21</f>
+        <v>9109</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="15">
+        <f>-5*$E$20</f>
+        <v>-30</v>
+      </c>
+      <c r="C22" s="14">
+        <f>C21+B22</f>
+        <v>9079</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D7">
-        <v>900</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
-        <v>300</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="1">
-        <f>C2+C6</f>
-        <v>1660</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>100</v>
-      </c>
-      <c r="C12" s="1">
-        <f>C11+B12+D12</f>
-        <v>1760</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>200</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" ref="C13:C20" si="0">C12+B13+D13</f>
-        <v>1960</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="15"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>7500</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="0"/>
-        <v>9460</v>
-      </c>
-      <c r="E14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="1">
-        <f t="shared" si="0"/>
-        <v>8860</v>
-      </c>
-      <c r="D15">
-        <v>-600</v>
-      </c>
-      <c r="E15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>100</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" si="0"/>
-        <v>8960</v>
-      </c>
-      <c r="E16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <f>H2*7</f>
-        <v>161</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" si="0"/>
-        <v>9121</v>
-      </c>
-      <c r="E17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <f>8000*1.6%*F18/12</f>
-        <v>64</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" si="0"/>
-        <v>9185</v>
-      </c>
-      <c r="E18" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="1">
-        <f t="shared" si="0"/>
-        <v>9119</v>
-      </c>
-      <c r="D19">
-        <f>-11*F18</f>
-        <v>-66</v>
-      </c>
-      <c r="E19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="1">
-        <f t="shared" si="0"/>
-        <v>9089</v>
-      </c>
-      <c r="D20">
-        <f>-5*F18</f>
-        <v>-30</v>
-      </c>
-      <c r="E20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -840,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C778743-D100-4935-BA36-B9FAC3809BA7}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,16 +1014,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
       <c r="G1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -873,10 +1031,10 @@
         <v>45413</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>380</v>
@@ -895,10 +1053,10 @@
         <v>45413</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>80</v>
@@ -917,10 +1075,10 @@
         <v>45413</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>900</v>
@@ -939,10 +1097,10 @@
         <v>45413</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>300</v>
@@ -961,10 +1119,10 @@
         <v>45427</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -983,10 +1141,10 @@
         <v>45434</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -1005,7 +1163,7 @@
         <v>45458</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <f>-33*12</f>
@@ -1029,7 +1187,7 @@
         <v>45473</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>9</v>
@@ -1051,7 +1209,7 @@
         <v>45473</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <f>7500/2-50-100</f>
@@ -1075,7 +1233,7 @@
         <v>45473</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -1094,7 +1252,7 @@
         <v>45504</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>9</v>
@@ -1116,7 +1274,7 @@
         <v>45504</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D13">
         <f>D10*1.6%/12</f>
@@ -1137,7 +1295,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E14">
         <v>-11</v>

--- a/msff/xls/DJDJ.xlsx
+++ b/msff/xls/DJDJ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61AF5D3-EF1A-4202-8DD5-B35A26F3F9EC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8209C3F-FF87-4077-9D4A-0D2D2694C5F5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="monthly fees" sheetId="1" r:id="rId1"/>
@@ -313,12 +313,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -332,6 +326,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C183CB8-D378-462F-8FD8-E1E38480DC8D}">
   <dimension ref="B2:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,12 +733,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="4">
+      <c r="B2" s="16">
         <f>SUM(C3:C4)</f>
         <v>460</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
@@ -750,234 +750,234 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>380</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="11">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9">
         <v>80</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
+      <c r="B6" s="16">
         <f>SUM(C7:C8)</f>
         <v>1290</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>950</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>340</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
-      <c r="C11" s="14">
+      <c r="B11" s="13"/>
+      <c r="C11" s="12">
         <f>B2+B6</f>
         <v>1750</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <v>100</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="12">
         <f>C11+B12</f>
         <v>1850</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="15">
+      <c r="B13" s="13">
         <v>200</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="12">
         <f>C12+B13</f>
         <v>2050</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="15"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="13" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="15">
         <f>320+320</f>
         <v>640</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="13" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="15">
+      <c r="B16" s="13">
         <v>7500</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="12">
         <f>C13+B16</f>
         <v>9550</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="13"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="15">
+      <c r="B17" s="13">
         <v>-700</v>
       </c>
-      <c r="C17" s="14">
-        <f>C16+B17</f>
+      <c r="C17" s="12">
+        <f t="shared" ref="C17:C22" si="0">C16+B17</f>
         <v>8850</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="13"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="15">
+      <c r="B18" s="13">
         <v>100</v>
       </c>
-      <c r="C18" s="14">
-        <f>C17+B18</f>
+      <c r="C18" s="12">
+        <f t="shared" si="0"/>
         <v>8950</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="13"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="15">
+      <c r="B19" s="13">
         <f>G2*7</f>
         <v>161</v>
       </c>
-      <c r="C19" s="14">
-        <f>C18+B19</f>
+      <c r="C19" s="12">
+        <f t="shared" si="0"/>
         <v>9111</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="13"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="15">
+      <c r="B20" s="13">
         <f>8000*1.6%*E20/12</f>
         <v>64</v>
       </c>
-      <c r="C20" s="14">
-        <f>C19+B20</f>
+      <c r="C20" s="12">
+        <f t="shared" si="0"/>
         <v>9175</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="15">
+      <c r="B21" s="13">
         <f>-11*$E$20</f>
         <v>-66</v>
       </c>
-      <c r="C21" s="14">
-        <f>C20+B21</f>
+      <c r="C21" s="12">
+        <f t="shared" si="0"/>
         <v>9109</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="13"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="15">
+      <c r="B22" s="13">
         <f>-5*$E$20</f>
         <v>-30</v>
       </c>
-      <c r="C22" s="14">
-        <f>C21+B22</f>
+      <c r="C22" s="12">
+        <f t="shared" si="0"/>
         <v>9079</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="13"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="15"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D25" t="s">

--- a/msff/xls/DJDJ.xlsx
+++ b/msff/xls/DJDJ.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8209C3F-FF87-4077-9D4A-0D2D2694C5F5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DB5022-08ED-4D11-AC4A-E754E84065C4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="monthly fees" sheetId="1" r:id="rId1"/>
     <sheet name="cashflow proj" sheetId="2" r:id="rId2"/>
-    <sheet name="Genn" sheetId="3" r:id="rId3"/>
+    <sheet name="Genn projection" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>total monthly</t>
   </si>
@@ -45,9 +45,6 @@
     <t>2nd person入住</t>
   </si>
   <si>
-    <t>based on Year1 deposit</t>
-  </si>
-  <si>
     <t>without discount</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>..grandma Icbc</t>
   </si>
   <si>
-    <t>expense till EOY</t>
-  </si>
-  <si>
     <t>transfer to CiticTrust</t>
   </si>
   <si>
@@ -147,9 +141,6 @@
     <t>salary till EOY</t>
   </si>
   <si>
-    <t>Grandma need interest income, so I might need to send them int earned beyond the 1560k</t>
-  </si>
-  <si>
     <t>change</t>
   </si>
   <si>
@@ -168,13 +159,51 @@
     <t>.. grandMa psbc snapshot 95万</t>
   </si>
   <si>
-    <t>to CiticTrust for Y2/Y3 #est</t>
-  </si>
-  <si>
     <t>food x 2</t>
   </si>
   <si>
     <t>7800k part 2 #205万 confirmed</t>
+  </si>
+  <si>
+    <t>to CiticTrust for Y2/Y3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Grandma need </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>interest income</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, so I might need to send them interest earned beyond the 1560k</t>
+    </r>
+  </si>
+  <si>
+    <t>other expenses till EOY #8k/M</t>
+  </si>
+  <si>
+    <t>addr: 北礼士路 #98</t>
+  </si>
+  <si>
+    <t>Tel: 18701059723</t>
+  </si>
+  <si>
+    <t>-&gt; based on Year1 deposit. Note only basic room fee gets 10% discount for CiticiTrust account holders.</t>
   </si>
 </sst>
 </file>
@@ -184,8 +213,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\+0;\-0;0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -308,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -333,6 +370,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H11"/>
+  <dimension ref="B1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,7 +665,7 @@
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -638,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -654,57 +692,71 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="12">
         <f>SUM(B3:B4)/12</f>
         <v>21811.24</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
+      <c r="D5" s="18" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="11">
         <v>2500</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="11">
         <f>1800*2</f>
         <v>3600</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="11">
         <v>1000</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="11">
         <v>4000</v>
       </c>
     </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+    </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="B11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="12">
         <f>SUM(C5:C9)</f>
         <v>32911.240000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -718,7 +770,7 @@
   <dimension ref="B2:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,10 +791,10 @@
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <f>9+14</f>
@@ -751,13 +803,13 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="6">
         <v>380</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -766,7 +818,7 @@
         <v>80</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -777,40 +829,40 @@
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="6">
         <v>950</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="9">
         <v>340</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>45</v>
-      </c>
       <c r="D10" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E10" s="11"/>
     </row>
@@ -821,7 +873,7 @@
         <v>1750</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="11"/>
     </row>
@@ -834,7 +886,7 @@
         <v>1850</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12" s="11"/>
     </row>
@@ -847,7 +899,7 @@
         <v>2050</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E13" s="11"/>
     </row>
@@ -855,7 +907,7 @@
       <c r="B14" s="13"/>
       <c r="C14" s="12"/>
       <c r="D14" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E14" s="15">
         <f>320+320</f>
@@ -866,46 +918,46 @@
       <c r="B15" s="13"/>
       <c r="C15" s="12"/>
       <c r="D15" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E15" s="15"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="13">
-        <v>7500</v>
+        <v>100</v>
       </c>
       <c r="C16" s="12">
         <f>C13+B16</f>
-        <v>9550</v>
+        <v>2150</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="13">
-        <v>-700</v>
+        <v>7500</v>
       </c>
       <c r="C17" s="12">
-        <f t="shared" ref="C17:C22" si="0">C16+B17</f>
-        <v>8850</v>
+        <f>C16+B17</f>
+        <v>9650</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E17" s="11"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="13">
-        <v>100</v>
+        <v>-600</v>
       </c>
       <c r="C18" s="12">
-        <f t="shared" si="0"/>
-        <v>8950</v>
+        <f t="shared" ref="C18:C22" si="0">C17+B18</f>
+        <v>9050</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E18" s="11"/>
     </row>
@@ -916,10 +968,10 @@
       </c>
       <c r="C19" s="12">
         <f t="shared" si="0"/>
-        <v>9111</v>
+        <v>9211</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E19" s="11"/>
     </row>
@@ -930,10 +982,10 @@
       </c>
       <c r="C20" s="12">
         <f t="shared" si="0"/>
-        <v>9175</v>
+        <v>9275</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E20" s="15">
         <v>6</v>
@@ -946,24 +998,24 @@
       </c>
       <c r="C21" s="12">
         <f t="shared" si="0"/>
-        <v>9109</v>
+        <v>9209</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="13">
-        <f>-5*$E$20</f>
-        <v>-30</v>
+        <f>-8*$E$20</f>
+        <v>-48</v>
       </c>
       <c r="C22" s="12">
         <f t="shared" si="0"/>
-        <v>9079</v>
+        <v>9161</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E22" s="11"/>
     </row>
@@ -981,7 +1033,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1014,16 +1066,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1031,10 +1083,10 @@
         <v>45413</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>380</v>
@@ -1053,10 +1105,10 @@
         <v>45413</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>80</v>
@@ -1075,10 +1127,10 @@
         <v>45413</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>900</v>
@@ -1097,10 +1149,10 @@
         <v>45413</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>300</v>
@@ -1119,10 +1171,10 @@
         <v>45427</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -1141,10 +1193,10 @@
         <v>45434</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -1163,7 +1215,7 @@
         <v>45458</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <f>-33*12</f>
@@ -1187,7 +1239,7 @@
         <v>45473</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>9</v>
@@ -1209,7 +1261,7 @@
         <v>45473</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <f>7500/2-50-100</f>
@@ -1233,7 +1285,7 @@
         <v>45473</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -1252,7 +1304,7 @@
         <v>45504</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>9</v>
@@ -1274,7 +1326,7 @@
         <v>45504</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <f>D10*1.6%/12</f>
@@ -1295,7 +1347,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E14">
         <v>-11</v>

--- a/msff/xls/DJDJ.xlsx
+++ b/msff/xls/DJDJ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DB5022-08ED-4D11-AC4A-E754E84065C4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70E7DC7-2154-49D2-8A25-E9741CDFED3C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="monthly fees" sheetId="1" r:id="rId1"/>
@@ -364,13 +364,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +699,7 @@
         <f>SUM(B3:B4)/12</f>
         <v>21811.24</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>52</v>
       </c>
     </row>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="11">
-        <v>4000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -746,7 +746,7 @@
       </c>
       <c r="C11" s="12">
         <f>SUM(C5:C9)</f>
-        <v>32911.240000000005</v>
+        <v>35911.240000000005</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C183CB8-D378-462F-8FD8-E1E38480DC8D}">
   <dimension ref="B2:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,11 +785,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="16">
+      <c r="B2" s="17">
         <f>SUM(C3:C4)</f>
         <v>460</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="18"/>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
@@ -823,11 +823,11 @@
     </row>
     <row r="5" spans="2:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="16">
+      <c r="B6" s="17">
         <f>SUM(C7:C8)</f>
         <v>1290</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
@@ -993,12 +993,12 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="13">
-        <f>-11*$E$20</f>
-        <v>-66</v>
+        <f>-14*$E$20</f>
+        <v>-84</v>
       </c>
       <c r="C21" s="12">
         <f t="shared" si="0"/>
-        <v>9209</v>
+        <v>9191</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>37</v>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="C22" s="12">
         <f t="shared" si="0"/>
-        <v>9161</v>
+        <v>9143</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>49</v>

--- a/msff/xls/DJDJ.xlsx
+++ b/msff/xls/DJDJ.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70E7DC7-2154-49D2-8A25-E9741CDFED3C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A46C7F7-8F00-4CDB-B4B0-D788D4947484}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="monthly fees" sheetId="1" r:id="rId1"/>
     <sheet name="cashflow proj" sheetId="2" r:id="rId2"/>
     <sheet name="Genn projection" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,12 +48,6 @@
     <t>without discount</t>
   </si>
   <si>
-    <t>grandpa total/000</t>
-  </si>
-  <si>
-    <t>grandma total/000</t>
-  </si>
-  <si>
     <t>..grandpa TD</t>
   </si>
   <si>
@@ -66,9 +60,6 @@
     <t>est:</t>
   </si>
   <si>
-    <t>snapshot before 7800k</t>
-  </si>
-  <si>
     <t>..grandma Icbc</t>
   </si>
   <si>
@@ -162,10 +153,19 @@
     <t>food x 2</t>
   </si>
   <si>
-    <t>7800k part 2 #205万 confirmed</t>
-  </si>
-  <si>
     <t>to CiticTrust for Y2/Y3</t>
+  </si>
+  <si>
+    <t>other expenses till EOY #8k/M</t>
+  </si>
+  <si>
+    <t>addr: 北礼士路 #98</t>
+  </si>
+  <si>
+    <t>Tel: 18701059723</t>
+  </si>
+  <si>
+    <t>-&gt; based on Year1 deposit. Note only basic room fee gets 10% discount for CiticiTrust account holders.</t>
   </si>
   <si>
     <r>
@@ -190,20 +190,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, so I might need to send them interest earned beyond the 1560k</t>
+      <t>, so she deserves any  interest earned on the "principal amount beyond my own  1560k"</t>
     </r>
   </si>
   <si>
-    <t>other expenses till EOY #8k/M</t>
-  </si>
-  <si>
-    <t>addr: 北礼士路 #98</t>
-  </si>
-  <si>
-    <t>Tel: 18701059723</t>
-  </si>
-  <si>
-    <t>-&gt; based on Year1 deposit. Note only basic room fee gets 10% discount for CiticiTrust account holders.</t>
+    <t>7800k part 2 #205万 confirmed around 2024/5/20</t>
+  </si>
+  <si>
+    <t>AA: grandpa total/000, before 7800k</t>
+  </si>
+  <si>
+    <t>BB: grandma total/000, before 7800k</t>
+  </si>
+  <si>
+    <t>AA+BB snapshot before 7800k</t>
   </si>
 </sst>
 </file>
@@ -665,7 +665,7 @@
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -700,7 +700,7 @@
         <v>21811.24</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -713,7 +713,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C7" s="11">
         <f>1800*2</f>
@@ -751,12 +751,12 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -770,7 +770,7 @@
   <dimension ref="B2:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,7 +778,7 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
@@ -791,10 +791,10 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G2">
         <f>9+14</f>
@@ -803,13 +803,13 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="6">
         <v>380</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -818,7 +818,7 @@
         <v>80</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -829,40 +829,40 @@
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="4" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="6">
         <v>950</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="9">
         <v>340</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="D10" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E10" s="11"/>
     </row>
@@ -873,7 +873,7 @@
         <v>1750</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E11" s="11"/>
     </row>
@@ -886,7 +886,7 @@
         <v>1850</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E12" s="11"/>
     </row>
@@ -899,7 +899,7 @@
         <v>2050</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E13" s="11"/>
     </row>
@@ -907,7 +907,7 @@
       <c r="B14" s="13"/>
       <c r="C14" s="12"/>
       <c r="D14" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E14" s="15">
         <f>320+320</f>
@@ -918,33 +918,33 @@
       <c r="B15" s="13"/>
       <c r="C15" s="12"/>
       <c r="D15" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E15" s="15"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="13">
-        <v>100</v>
+        <v>7500</v>
       </c>
       <c r="C16" s="12">
         <f>C13+B16</f>
-        <v>2150</v>
+        <v>9550</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="13">
-        <v>7500</v>
+        <v>100</v>
       </c>
       <c r="C17" s="12">
         <f>C16+B17</f>
         <v>9650</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E17" s="11"/>
     </row>
@@ -953,11 +953,11 @@
         <v>-600</v>
       </c>
       <c r="C18" s="12">
-        <f t="shared" ref="C18:C22" si="0">C17+B18</f>
+        <f>C17+B18</f>
         <v>9050</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E18" s="11"/>
     </row>
@@ -967,11 +967,11 @@
         <v>161</v>
       </c>
       <c r="C19" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C19:C22" si="0">C18+B19</f>
         <v>9211</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E19" s="11"/>
     </row>
@@ -985,7 +985,7 @@
         <v>9275</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E20" s="15">
         <v>6</v>
@@ -1001,7 +1001,7 @@
         <v>9191</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E21" s="11"/>
     </row>
@@ -1015,7 +1015,7 @@
         <v>9143</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E22" s="11"/>
     </row>
@@ -1066,16 +1066,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1083,10 +1083,10 @@
         <v>45413</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>380</v>
@@ -1105,10 +1105,10 @@
         <v>45413</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>80</v>
@@ -1127,10 +1127,10 @@
         <v>45413</v>
       </c>
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4">
         <v>900</v>
@@ -1149,10 +1149,10 @@
         <v>45413</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>300</v>
@@ -1171,10 +1171,10 @@
         <v>45427</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -1193,10 +1193,10 @@
         <v>45434</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -1215,7 +1215,7 @@
         <v>45458</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <f>-33*12</f>
@@ -1239,7 +1239,7 @@
         <v>45473</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>9</v>
@@ -1261,7 +1261,7 @@
         <v>45473</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <f>7500/2-50-100</f>
@@ -1285,7 +1285,7 @@
         <v>45473</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -1304,7 +1304,7 @@
         <v>45504</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <v>9</v>
@@ -1326,7 +1326,7 @@
         <v>45504</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D13">
         <f>D10*1.6%/12</f>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>-11</v>

--- a/msff/xls/DJDJ.xlsx
+++ b/msff/xls/DJDJ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A46C7F7-8F00-4CDB-B4B0-D788D4947484}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6D787F-2B6C-4797-ACDF-DB7792BE1A26}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>total monthly</t>
   </si>
@@ -204,6 +204,15 @@
   </si>
   <si>
     <t>AA+BB snapshot before 7800k</t>
+  </si>
+  <si>
+    <t>deposits:</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>principal</t>
   </si>
 </sst>
 </file>
@@ -345,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -371,6 +380,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -767,10 +777,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C183CB8-D378-462F-8FD8-E1E38480DC8D}">
-  <dimension ref="B2:G25"/>
+  <dimension ref="B2:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,6 +1045,38 @@
       <c r="D25" t="s">
         <v>48</v>
       </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="19">
+        <v>2.35E-2</v>
+      </c>
+      <c r="C29">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="19">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="C30">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/msff/xls/DJDJ.xlsx
+++ b/msff/xls/DJDJ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6D787F-2B6C-4797-ACDF-DB7792BE1A26}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B707AF3-F24F-472A-BBCF-A6B6DF1D93A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-21600" windowWidth="17310" windowHeight="21150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="monthly fees" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t>total monthly</t>
   </si>
@@ -117,27 +126,12 @@
     <t>7800k part 1</t>
   </si>
   <si>
-    <t>7800k part 3</t>
-  </si>
-  <si>
-    <t>monthly salary/000=</t>
-  </si>
-  <si>
     <t>..grandma Psbc deposits</t>
   </si>
   <si>
-    <t>DJDJ fees till EOY</t>
-  </si>
-  <si>
     <t>salary till EOY</t>
   </si>
   <si>
-    <t>change</t>
-  </si>
-  <si>
-    <t>int till EOY #months =</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -153,19 +147,10 @@
     <t>food x 2</t>
   </si>
   <si>
-    <t>to CiticTrust for Y2/Y3</t>
-  </si>
-  <si>
-    <t>other expenses till EOY #8k/M</t>
-  </si>
-  <si>
     <t>addr: 北礼士路 #98</t>
   </si>
   <si>
     <t>Tel: 18701059723</t>
-  </si>
-  <si>
-    <t>-&gt; based on Year1 deposit. Note only basic room fee gets 10% discount for CiticiTrust account holders.</t>
   </si>
   <si>
     <r>
@@ -206,23 +191,76 @@
     <t>AA+BB snapshot before 7800k</t>
   </si>
   <si>
-    <t>deposits:</t>
-  </si>
-  <si>
     <t>rate</t>
   </si>
   <si>
     <t>principal</t>
+  </si>
+  <si>
+    <t>-&gt; based on Year1 deposit</t>
+  </si>
+  <si>
+    <t>bank deposits:</t>
+  </si>
+  <si>
+    <t>备用金</t>
+  </si>
+  <si>
+    <t>June food x2</t>
+  </si>
+  <si>
+    <t>June care fee: GM</t>
+  </si>
+  <si>
+    <t>June care fee: GP</t>
+  </si>
+  <si>
+    <t>move-in fee</t>
+  </si>
+  <si>
+    <t>medical emergency deposit</t>
+  </si>
+  <si>
+    <t>2nd person入住/12M</t>
+  </si>
+  <si>
+    <t>^^ recurring</t>
+  </si>
+  <si>
+    <t>DJDJ fees till EOY #est</t>
+  </si>
+  <si>
+    <t>total/000 on 30 June</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>spend</t>
+  </si>
+  <si>
+    <t>other expenses till EOY #5k/M</t>
+  </si>
+  <si>
+    <t>GM paid DJDJ 30 June</t>
+  </si>
+  <si>
+    <t>monthly salary</t>
+  </si>
+  <si>
+    <t>7800k part 3 late June</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="\+0;\-0;0"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +276,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -247,7 +299,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -350,11 +402,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -374,15 +455,27 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -661,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H15"/>
+  <dimension ref="B1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,59 +807,64 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="11">
-        <v>2500</v>
-      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C7" s="11">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="11">
         <f>1800*2</f>
         <v>3600</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="11">
-        <v>1000</v>
-      </c>
-    </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C10" s="20">
         <v>7000</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-    </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="12">
-        <f>SUM(C5:C9)</f>
+      <c r="C12" s="12">
+        <f>SUM(C5:C10)</f>
         <v>35911.240000000005</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -777,311 +875,383 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C183CB8-D378-462F-8FD8-E1E38480DC8D}">
-  <dimension ref="B2:G35"/>
+  <dimension ref="B2:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" customWidth="1"/>
-    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" customWidth="1"/>
+    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="17">
-        <f>SUM(C3:C4)</f>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="18">
+        <f>SUM(D3:D4)</f>
         <v>460</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2">
-        <f>9+14</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="30">
+        <v>23000</v>
+      </c>
+      <c r="I2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="25"/>
+      <c r="D3" s="6">
         <v>380</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="8"/>
-      <c r="C4" s="9">
+      <c r="C4" s="26"/>
+      <c r="D4" s="9">
         <v>80</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="17">
-        <f>SUM(C7:C8)</f>
+    <row r="5" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="18">
+        <f>SUM(D7:D8)</f>
         <v>1290</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="25"/>
+      <c r="D7" s="6">
         <v>950</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E7" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="26"/>
+      <c r="D8" s="9">
         <v>340</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="H10" s="28">
+        <f>1800*2</f>
+        <v>3600</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
-      <c r="C11" s="12">
+      <c r="C11" s="13"/>
+      <c r="D11" s="12">
         <f>B2+B6</f>
         <v>1750</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="H11" s="28">
+        <v>1000</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <v>100</v>
       </c>
-      <c r="C12" s="12">
-        <f>C11+B12</f>
+      <c r="C12" s="14"/>
+      <c r="D12" s="12">
+        <f>D11+B12</f>
         <v>1850</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="11"/>
+      <c r="H12" s="28">
+        <v>4000</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="13">
         <v>200</v>
       </c>
-      <c r="C13" s="12">
-        <f>C12+B13</f>
+      <c r="C13" s="13"/>
+      <c r="D13" s="12">
+        <f>D12+B13</f>
         <v>2050</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="H13" s="28">
+        <f>2500*12</f>
+        <v>30000</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="15">
+      <c r="C14" s="13"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="15">
         <f>320+320</f>
         <v>640</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="28"/>
+      <c r="I14" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="13"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="H15" s="28">
+        <f>2000*2</f>
+        <v>4000</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="13">
         <v>7500</v>
       </c>
-      <c r="C16" s="12">
-        <f>C13+B16</f>
+      <c r="C16" s="13"/>
+      <c r="D16" s="12">
+        <f>D13+B16</f>
         <v>9550</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="H16" s="28">
+        <f>30000*2</f>
+        <v>60000</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13">
         <v>100</v>
       </c>
-      <c r="C17" s="12">
-        <f>C16+B17</f>
+      <c r="C17" s="13"/>
+      <c r="D17" s="12">
+        <f>D16+B17</f>
         <v>9650</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="E17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="13">
-        <v>-600</v>
-      </c>
-      <c r="C18" s="12">
-        <f>C17+B18</f>
-        <v>9050</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="11"/>
+      <c r="H17" s="29">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="C18" s="27">
+        <f>-H18</f>
+        <v>-103.6</v>
+      </c>
+      <c r="D18" s="12">
+        <f>D17+SUM(B18:C18)</f>
+        <v>9546.4</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="H18" s="22">
+        <f>SUM(H10:H17)/1000</f>
+        <v>103.6</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="13">
-        <f>G2*7</f>
-        <v>161</v>
-      </c>
-      <c r="C19" s="12">
-        <f t="shared" ref="C19:C22" si="0">C18+B19</f>
-        <v>9211</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="13">
-        <f>8000*1.6%*E20/12</f>
-        <v>64</v>
-      </c>
-      <c r="C20" s="12">
+        <f>H2/1000*F20</f>
+        <v>115</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="12">
+        <f>D18+SUM(B19:C19)</f>
+        <v>9661.4</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="27">
+        <f>-9*$F$20</f>
+        <v>-45</v>
+      </c>
+      <c r="D20" s="12">
+        <f t="shared" ref="D20:D21" si="0">D19+SUM(B20:C20)</f>
+        <v>9616.4</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="C21" s="27">
+        <f>-5*$F$20</f>
+        <v>-25</v>
+      </c>
+      <c r="D21" s="12">
         <f t="shared" si="0"/>
-        <v>9275</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="13">
-        <f>-14*$E$20</f>
-        <v>-84</v>
-      </c>
-      <c r="C21" s="12">
-        <f t="shared" si="0"/>
-        <v>9191</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="13">
-        <f>-8*$E$20</f>
-        <v>-48</v>
-      </c>
-      <c r="C22" s="12">
-        <f t="shared" si="0"/>
-        <v>9143</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>44</v>
-      </c>
+        <v>9591.4</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="13"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="13"/>
-      <c r="C23" s="11"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="19">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="21">
         <v>2.35E-2</v>
       </c>
-      <c r="C29">
+      <c r="C28" s="21"/>
+      <c r="D28" s="11">
         <v>5000</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="19">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="21">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C30">
+      <c r="C29" s="21"/>
+      <c r="D29" s="11">
         <v>2000</v>
       </c>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F35" s="19"/>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1405,5 +1575,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/msff/xls/DJDJ.xlsx
+++ b/msff/xls/DJDJ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B707AF3-F24F-472A-BBCF-A6B6DF1D93A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D3B1E6-9954-4737-A641-E2798F9AAA30}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21600" windowWidth="17310" windowHeight="21150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="monthly fees" sheetId="1" r:id="rId1"/>
@@ -17,26 +17,14 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>total monthly</t>
-  </si>
-  <si>
-    <t>basic room</t>
   </si>
   <si>
     <t>first deposit, based on Year 1 discount</t>
@@ -179,9 +167,6 @@
     </r>
   </si>
   <si>
-    <t>7800k part 2 #205万 confirmed around 2024/5/20</t>
-  </si>
-  <si>
     <t>AA: grandpa total/000, before 7800k</t>
   </si>
   <si>
@@ -215,24 +200,12 @@
     <t>June care fee: GP</t>
   </si>
   <si>
-    <t>move-in fee</t>
-  </si>
-  <si>
     <t>medical emergency deposit</t>
   </si>
   <si>
-    <t>2nd person入住/12M</t>
-  </si>
-  <si>
-    <t>^^ recurring</t>
-  </si>
-  <si>
     <t>DJDJ fees till EOY #est</t>
   </si>
   <si>
-    <t>total/000 on 30 June</t>
-  </si>
-  <si>
     <t>credit</t>
   </si>
   <si>
@@ -245,10 +218,40 @@
     <t>GM paid DJDJ 30 June</t>
   </si>
   <si>
-    <t>monthly salary</t>
-  </si>
-  <si>
     <t>7800k part 3 late June</t>
+  </si>
+  <si>
+    <t>通知存款</t>
+  </si>
+  <si>
+    <t>3Y TD</t>
+  </si>
+  <si>
+    <t>move-in fee x2</t>
+  </si>
+  <si>
+    <t>基本房费</t>
+  </si>
+  <si>
+    <t>2nd person入住: [Jun-May]?</t>
+  </si>
+  <si>
+    <t>^^ recurring; one-time v v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7800k part 2 </t>
+  </si>
+  <si>
+    <t>205万 confirmed around 2024/5/20</t>
+  </si>
+  <si>
+    <t>= monthly salary</t>
+  </si>
+  <si>
+    <t>total/000 paid 30 June</t>
+  </si>
+  <si>
+    <t>let's confirm</t>
   </si>
 </sst>
 </file>
@@ -258,7 +261,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="\+0;\-0;0"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -456,12 +459,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -470,9 +467,15 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -757,7 +760,7 @@
   <dimension ref="B1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,7 +771,7 @@
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -776,10 +779,10 @@
         <v>248966.88</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -787,7 +790,7 @@
         <v>12768</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <f>C5/0.95/0.8</f>
@@ -796,14 +799,14 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C5" s="12">
         <f>SUM(B3:B4)/12</f>
         <v>21811.24</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -813,7 +816,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="11">
         <v>2500</v>
@@ -821,7 +824,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="11">
         <f>1800*2</f>
@@ -830,7 +833,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="11">
         <v>1000</v>
@@ -838,9 +841,9 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="20">
+        <v>3</v>
+      </c>
+      <c r="C10" s="18">
         <v>7000</v>
       </c>
     </row>
@@ -859,12 +862,12 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -875,123 +878,123 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C183CB8-D378-462F-8FD8-E1E38480DC8D}">
-  <dimension ref="B2:I34"/>
+  <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" customWidth="1"/>
-    <col min="5" max="5" width="43.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
     <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="18">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="29">
         <f>SUM(D3:D4)</f>
         <v>460</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="30">
+        <v>40</v>
+      </c>
+      <c r="H2" s="28">
         <v>23000</v>
       </c>
-      <c r="I2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="25"/>
+        <v>9</v>
+      </c>
+      <c r="C3" s="23"/>
       <c r="D3" s="6">
         <v>380</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="8"/>
-      <c r="C4" s="26"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="9">
         <v>80</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="29">
         <f>SUM(D7:D8)</f>
         <v>1290</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="25"/>
+        <v>10</v>
+      </c>
+      <c r="C7" s="23"/>
       <c r="D7" s="6">
         <v>950</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="26"/>
+        <v>10</v>
+      </c>
+      <c r="C8" s="24"/>
       <c r="D8" s="9">
         <v>340</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="11"/>
-      <c r="H10" s="28">
+      <c r="H10" s="26">
         <f>1800*2</f>
         <v>3600</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="12">
@@ -999,17 +1002,17 @@
         <v>1750</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F11" s="11"/>
-      <c r="H11" s="28">
+      <c r="H11" s="26">
         <v>1000</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <v>100</v>
       </c>
@@ -1019,17 +1022,17 @@
         <v>1850</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="11"/>
-      <c r="H12" s="28">
+      <c r="H12" s="26">
         <v>4000</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="13">
         <v>200</v>
       </c>
@@ -1039,210 +1042,226 @@
         <v>2050</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="F13" s="11"/>
-      <c r="H13" s="28">
+      <c r="H13" s="26">
         <f>2500*12</f>
         <v>30000</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="J13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="12"/>
       <c r="E14" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="15">
-        <f>320+320</f>
-        <v>640</v>
-      </c>
-      <c r="H14" s="28"/>
+        <v>65</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="12"/>
       <c r="E15" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="H15" s="28">
+        <v>34</v>
+      </c>
+      <c r="F15" s="15">
+        <f>320+320</f>
+        <v>640</v>
+      </c>
+      <c r="H15" s="26">
         <f>2000*2</f>
         <v>4000</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="13">
-        <v>7500</v>
-      </c>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="13"/>
       <c r="C16" s="13"/>
-      <c r="D16" s="12">
-        <f>D13+B16</f>
-        <v>9550</v>
-      </c>
+      <c r="D16" s="12"/>
       <c r="E16" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="H16" s="28">
+        <v>35</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="H16" s="26">
         <f>30000*2</f>
         <v>60000</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13">
-        <v>100</v>
+        <v>7500</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="12">
-        <f>D16+B17</f>
+        <f>D13+B17</f>
+        <v>9550</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="H17" s="27">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="13">
+        <v>100</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="12">
+        <f>D17+B18</f>
         <v>9650</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="H17" s="29">
-        <v>1000</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="12"/>
-      <c r="C18" s="27">
+      <c r="E18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="H18" s="20">
+        <f>SUM(H10:H17)/1000</f>
+        <v>103.6</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="C19" s="25">
         <f>-H18</f>
         <v>-103.6</v>
       </c>
-      <c r="D18" s="12">
-        <f>D17+SUM(B18:C18)</f>
-        <v>9546.4</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="H18" s="22">
-        <f>SUM(H10:H17)/1000</f>
-        <v>103.6</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="13">
-        <f>H2/1000*F20</f>
-        <v>115</v>
-      </c>
-      <c r="C19" s="27"/>
       <c r="D19" s="12">
         <f>D18+SUM(B19:C19)</f>
+        <v>9546.4</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="13">
+        <f>H2/1000*F21</f>
+        <v>115</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="12">
+        <f>D19+SUM(B20:C20)</f>
         <v>9661.4</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="12"/>
-      <c r="C20" s="27">
-        <f>-9*$F$20</f>
-        <v>-45</v>
-      </c>
-      <c r="D20" s="12">
-        <f t="shared" ref="D20:D21" si="0">D19+SUM(B20:C20)</f>
-        <v>9616.4</v>
-      </c>
       <c r="E20" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="15">
-        <v>5</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
-      <c r="C21" s="27">
-        <f>-5*$F$20</f>
+      <c r="C21" s="25">
+        <f>-9*$F$21</f>
+        <v>-45</v>
+      </c>
+      <c r="D21" s="12">
+        <f t="shared" ref="D21:D22" si="0">D20+SUM(B21:C21)</f>
+        <v>9616.4</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+      <c r="C22" s="25">
+        <f>-5*$F$21</f>
         <v>-25</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D22" s="12">
         <f t="shared" si="0"/>
         <v>9591.4</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="E22" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="F22" s="11"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="13"/>
-      <c r="C23" s="27"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>46</v>
       </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="21">
+      <c r="C28" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="19">
         <v>2.35E-2</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="11">
+      <c r="D29" s="11">
         <v>5000</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="21">
+      <c r="E29" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="19">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="11">
-        <v>2000</v>
+      <c r="D30" s="11">
+        <v>1000</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="7:7" x14ac:dyDescent="0.25">
@@ -1263,7 +1282,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,16 +1297,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1295,10 +1314,10 @@
         <v>45413</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>380</v>
@@ -1317,10 +1336,10 @@
         <v>45413</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
       </c>
       <c r="E3">
         <v>80</v>
@@ -1339,10 +1358,10 @@
         <v>45413</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>900</v>
@@ -1361,10 +1380,10 @@
         <v>45413</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
       </c>
       <c r="D5">
         <v>300</v>
@@ -1383,10 +1402,10 @@
         <v>45427</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -1405,10 +1424,10 @@
         <v>45434</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -1427,7 +1446,7 @@
         <v>45458</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <f>-33*12</f>
@@ -1451,7 +1470,7 @@
         <v>45473</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9">
         <v>9</v>
@@ -1473,7 +1492,7 @@
         <v>45473</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <f>7500/2-50-100</f>
@@ -1497,7 +1516,7 @@
         <v>45473</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -1516,7 +1535,7 @@
         <v>45504</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>9</v>
@@ -1538,7 +1557,7 @@
         <v>45504</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13">
         <f>D10*1.6%/12</f>
@@ -1559,7 +1578,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>-11</v>
